--- a/数据/products.xlsx
+++ b/数据/products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11325" windowHeight="12375"/>
+    <workbookView windowWidth="19995" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>sku_prefix</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -53,12 +50,6 @@
     <t>attr_value</t>
   </si>
   <si>
-    <t>img_folder_id</t>
-  </si>
-  <si>
-    <t>HDS14</t>
-  </si>
-  <si>
     <t>Skull Hematite Beads 4/6/8mm Black for DIY Jewelry Making</t>
   </si>
   <si>
@@ -74,43 +65,28 @@
     <t>Hematite</t>
   </si>
   <si>
-    <t>HDS17</t>
-  </si>
-  <si>
     <t>Jesus Cross Hematite Beads 4-14mm Black for DIY Jewelry</t>
   </si>
   <si>
     <t>These Jesus cross-shaped hematite beads come in a variety of sizes (4mm, 6mm, 8mm, 10mm, 14mm). Crafted from natural black hematite, each bead offers a meaningful accent for spiritual or faith-inspired jewelry. Great for bracelets, necklaces, prayer beads, and religious gifts.</t>
   </si>
   <si>
-    <t>HDS18</t>
-  </si>
-  <si>
     <t>Jesus Head Hematite Beads 6/8/10/12mm Black DIY Jewelry</t>
   </si>
   <si>
     <t>These Jesus head hematite beads are available in 6mm, 8mm, 10mm, and 12mm. Each bead is made from black hematite with detailed facial features, perfect for religious jewelry, spiritual gifts, and unique accessories.</t>
   </si>
   <si>
-    <t>HDS19</t>
-  </si>
-  <si>
     <t>Rose/Owl/Leaf Hematite Beads 8mm for DIY Jewelry Making</t>
   </si>
   <si>
     <t>Choose from rose (8mm round), owl (8x10mm), or leaf (8x4mm) shaped hematite beads. Each bead features intricate details and a smooth, shiny finish, made from natural black hematite. Great for custom jewelry, charm bracelets, and creative designs.</t>
   </si>
   <si>
-    <t>HDS20</t>
-  </si>
-  <si>
     <t>Lion/Buddha/Maitreya Hematite Beads Black for DIY Jewelry</t>
   </si>
   <si>
     <t>This collection features lion head, Buddha head, and Maitreya Buddha hematite beads, each with striking carved details. Made from natural black hematite, perfect for statement jewelry, spiritual accessories, and meaningful gifts.</t>
-  </si>
-  <si>
-    <t>HDS21</t>
   </si>
   <si>
     <t>Fish Hematite Beads 4x8/6x15mm Black for DIY Jewelry</t>
@@ -1271,18 +1247,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="19.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1304,167 +1280,263 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>10011</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1">
-        <v>4.66</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>10012</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
         <v>4.66</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>10013</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
         <v>5.74</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>10014</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
         <v>5.53</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>10015</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
+      <c r="B6" t="s">
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
         <v>4.79</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>10016</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
         <v>5.31</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1">
+        <v>10019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
+        <v>10022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
+        <v>10024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
+        <v>10025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>10026</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
+        <v>10027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <v>10028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
+        <v>10029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <v>10030</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <v>10032</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1">
+        <v>10033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1">
+        <v>10034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1">
+        <v>10035</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1">
+        <v>10036</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1">
+        <v>10037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1">
+        <v>10038</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1">
+        <v>10039</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1">
+        <v>10040</v>
       </c>
     </row>
   </sheetData>

--- a/数据/products.xlsx
+++ b/数据/products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19995" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/数据/products.xlsx
+++ b/数据/products.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -50,10 +50,18 @@
     <t>attr_value</t>
   </si>
   <si>
-    <t>Skull Hematite Beads 4/6/8mm Black for DIY Jewelry Making</t>
-  </si>
-  <si>
-    <t>These skull-shaped hematite beads are available in 4mm, 6mm, and 8mm. Made from natural black hematite, they feature realistic details and a glossy finish. Ideal for edgy, punk, or gothic jewelry designs—perfect for bracelets, necklaces, earrings, and creative DIY crafts.</t>
+    <t>folder_id</t>
+  </si>
+  <si>
+    <t>folder_name</t>
+  </si>
+  <si>
+    <t>85pcs 4mm Hexagon Rods KC Gold Rose Gold Silver 9K 18K</t>
+  </si>
+  <si>
+    <t>['High-quality metal hexagon rods with a smooth polished finish', 'Precise 4mm diameter and uniform length for consistent crafting', 'Each pack contains exactly 85 pieces of hexagon rods', 'Perfect for DIY jewelry keychains and decorative art projects', 'Create unique bracelets earrings or geometric wall sculptures', 'Durable material resists tarnishing and maintains shiny appearance', 'All rods inspected for flawless quality before shipping', 'Ships securely packaged within 1-2 business days', 'Store in dry conditions to preserve metallic luster', 'Founded by artisans passionate about quality craft supplies', 'Mix and match colors for stunning personalized designs', 'Add to cart today']
+Available packs:
+4mm-85pcs</t>
   </si>
   <si>
     <t>Beads(珠子)</t>
@@ -62,37 +70,264 @@
     <t>Generic</t>
   </si>
   <si>
-    <t>Hematite</t>
-  </si>
-  <si>
-    <t>Jesus Cross Hematite Beads 4-14mm Black for DIY Jewelry</t>
-  </si>
-  <si>
-    <t>These Jesus cross-shaped hematite beads come in a variety of sizes (4mm, 6mm, 8mm, 10mm, 14mm). Crafted from natural black hematite, each bead offers a meaningful accent for spiritual or faith-inspired jewelry. Great for bracelets, necklaces, prayer beads, and religious gifts.</t>
-  </si>
-  <si>
-    <t>Jesus Head Hematite Beads 6/8/10/12mm Black DIY Jewelry</t>
-  </si>
-  <si>
-    <t>These Jesus head hematite beads are available in 6mm, 8mm, 10mm, and 12mm. Each bead is made from black hematite with detailed facial features, perfect for religious jewelry, spiritual gifts, and unique accessories.</t>
-  </si>
-  <si>
-    <t>Rose/Owl/Leaf Hematite Beads 8mm for DIY Jewelry Making</t>
-  </si>
-  <si>
-    <t>Choose from rose (8mm round), owl (8x10mm), or leaf (8x4mm) shaped hematite beads. Each bead features intricate details and a smooth, shiny finish, made from natural black hematite. Great for custom jewelry, charm bracelets, and creative designs.</t>
-  </si>
-  <si>
-    <t>Lion/Buddha/Maitreya Hematite Beads Black for DIY Jewelry</t>
-  </si>
-  <si>
-    <t>This collection features lion head, Buddha head, and Maitreya Buddha hematite beads, each with striking carved details. Made from natural black hematite, perfect for statement jewelry, spiritual accessories, and meaningful gifts.</t>
-  </si>
-  <si>
-    <t>Fish Hematite Beads 4x8/6x15mm Black for DIY Jewelry</t>
-  </si>
-  <si>
-    <t>These fish-shaped hematite beads come in small (4x8mm) and large (6x15mm) sizes. Each bead is smooth, shiny, and detailed, perfect for aquatic-themed bracelets, necklaces, and playful DIY accessories.</t>
+    <t>Beads</t>
+  </si>
+  <si>
+    <t>HDS170</t>
+  </si>
+  <si>
+    <t>32pcs 12mm Hollow Ring Set in KC Gold 18K Silver Rose G</t>
+  </si>
+  <si>
+    <t>['Made from high-quality brass with a durable KC gold 18K gold silver or rose gold finish', 'Each ring measures 12mm in diameter and comes in a set of 32 pieces', 'Perfect for DIY jewelry making and custom ring designs', 'Ideal for stacking layering or creating unique statement pieces', 'Use for wedding party favors bridesmaid gifts or fashion accessories', 'Lightweight yet sturdy design ensures comfort and long-lasting wear', 'Great for craft projects home decor or as embellishments for clothing', 'Each set is carefully inspected for quality and consistency', 'Ships in secure packaging to prevent damage during transit', 'Store in a dry place to maintain shine and prevent tarnishing', 'Our brand focuses on affordable stylish and versatile jewelry supplies', 'Add to cart today']
+Available packs:
+12mm-32pcs</t>
+  </si>
+  <si>
+    <t>HDS172</t>
+  </si>
+  <si>
+    <t>75-380pcs 1-5mm Double Hole Beads in Assorted Colors</t>
+  </si>
+  <si>
+    <t>['High-quality alloy beads with a smooth polished finish for durability', 'Precise 5x5mm 5x2mm or 5x1mm sizes and 1-5mm thickness options for versatile use', 'Each pack contains 75-380 pieces depending on your selection', 'Ideal for DIY jewelry like bracelets necklaces and earrings', 'Perfect for scrapbooking keychains and home decor projects', 'Vibrant colors including blue bronze green rainbow white gold purple and black', 'Lightweight design ensures comfortable wear in jewelry creations', 'Consistent sizing and uniform holes for easy stringing and crafting', 'Ships in secure packaging to prevent damage during transit', 'Store in a dry place to maintain shine and prevent tarnishing', 'Crafted by artisans passionate about quality and creative expression', 'Enhance your crafting with these versatile colorful beads', 'Add to cart today']
+Available packs:
+1mm-380pcs
+2mm-145pcs
+5mm-75pcs</t>
+  </si>
+  <si>
+    <t>HDS173-HDS175</t>
+  </si>
+  <si>
+    <t>63-145pcs 2-6mm Double Hole Natural Wood Beads</t>
+  </si>
+  <si>
+    <t>['Made from natural wood with a smooth unfinished surface for a rustic look', 'Sizes vary from 5x5mm 6x6mm 5x2mm to 6x3mm each pack contains 63-145 pieces', 'Perfect for DIY jewelry like bracelets necklaces and earrings', 'Use in home decor projects such as curtain ties and wall hangings', 'Great for crafting keychains bag charms and gift toppers', 'Lightweight and easy to handle for all skill levels', 'High-quality beads with consistent sizing and clean double holes', 'Ships in a sturdy resealable bag to keep beads organized and safe', "Store in a cool dry place to maintain the wood's natural integrity", 'Handcrafted with care by artisans who value sustainability', 'Enhance your creative projects with these versatile wooden beads', 'Add to cart today']
+Available packs:
+2mm-145pcs
+3mm-95pcs
+5mm-74pcs
+6mm-63pcs</t>
+  </si>
+  <si>
+    <t>HDS176-HDS177</t>
+  </si>
+  <si>
+    <t>48-75pcs 4-6mm Diagonal Square Beads for DIY Crafts</t>
+  </si>
+  <si>
+    <t>['High-quality resin diagonal square beads with a smooth glossy finish', 'Precise 4x4mm and 6x6mm sizes each bead weighs approx 0.5g', 'Pack includes 48-75pcs perfect for multiple projects', 'Ideal for jewelry making bracelets necklaces and earrings', 'Use in home decor keychains and creative wall art', 'Lightweight yet durable for long-lasting wearable designs', 'Consistent size and color for professional-looking results', 'Ships in secure packaging to prevent damage during transit', 'Store in a dry place away from direct sunlight', 'Handmade with care by skilled artisans for premium quality', 'Elevate your crafting with these versatile stylish beads', 'Add to cart today']
+Available packs:
+4mm-75pcs
+6mm-48pcs</t>
+  </si>
+  <si>
+    <t>HDS178</t>
+  </si>
+  <si>
+    <t>30-35pcs 10-12mm Hollow Ring Bands for DIY Jewelry</t>
+  </si>
+  <si>
+    <t>['Made from durable brass with a smooth polished finish for a premium look', 'Each ring measures 10-12mm in diameter and weighs approx 0.5g for lightweight wear', 'Pack includes 30-35 pieces perfect for bulk crafting projects', 'Ideal for making stackable rings charm bracelets and pendant necklaces', 'Create unique wedding bands friendship rings or decorative chain connectors', 'Consistent sizing allows for uniform professional-looking jewelry designs', 'Each piece undergoes quality inspection for flawless surfaces and perfect shapes', 'Ships in protective packaging to prevent dents or scratches during transit', 'Store in dry conditions to maintain shine and prevent tarnishing over time', 'From our family-owned jewelry supply business since 1992', 'Versatile blank components for jewelers and crafters at all skill levels', 'Add to cart today']
+Available packs:
+10mm-35pcs
+12mm-30pcs</t>
+  </si>
+  <si>
+    <t>HDS179</t>
+  </si>
+  <si>
+    <t>26-31pcs 13-16mm Twisted Hollow Flat Round Beads</t>
+  </si>
+  <si>
+    <t>['Made from high-quality alloy with a polished gold or silver finish', 'Each bead measures 10x16mm or 8x13mm and weighs approx 0.5g', 'Pack includes 26-31 pieces per set depending on size', 'Perfect for DIY jewelry like bracelets necklaces and earrings', 'Use in scrapbooking home decor or keychain projects', 'Lightweight yet durable beads with smooth edges for comfort', 'Consistently shaped beads with uniform coloring and finish', 'Ships in protective packaging within 1-3 business days', 'Store in dry place to prevent tarnishing and maintain shine', 'Handcrafted by artisans focusing on unique affordable designs', 'Mix and match with other beads for custom creations', 'Add to cart today']
+Available packs:
+13mm-31pcs
+16mm-26pcs</t>
+  </si>
+  <si>
+    <t>HDS180</t>
+  </si>
+  <si>
+    <t>25pcs 16mm Hollow Flat Round Beads</t>
+  </si>
+  <si>
+    <t>['Made from durable plastic with a smooth matte finish', 'Each bead measures 13x16mm and weighs approximately 0.5g', 'Pack includes 25 pieces for ample crafting supply', 'Perfect for DIY jewelry like necklaces and bracelets', 'Use in home decor projects such as dreamcatchers', 'Lightweight yet sturdy for versatile creative applications', 'Consistent size and shape for professional results', 'Ships in protective packaging to prevent damage', 'Store in a dry place to maintain bead quality', 'Inspired by minimalist design for modern crafters', 'Enhance your creations with these sleek hollow beads', 'Add to cart today']
+Available packs:
+16mm-25pcs</t>
+  </si>
+  <si>
+    <t>HDS181</t>
+  </si>
+  <si>
+    <t>39pcs 8mm Hollow Diagonal Square Blocks</t>
+  </si>
+  <si>
+    <t>['Made from high-quality acrylic with a smooth glossy finish', 'Each square measures exactly 8x8mm lightweight yet durable', 'Pack includes 39 pieces perfect for multiple projects', 'Ideal for DIY jewelry keychains and home decor crafts', 'Create mosaic art photo frames or decorative wall pieces', 'Enhance your designs with unique geometric patterns', 'Consistently shaped pieces for professional-looking results', 'Ships in protective packaging to prevent damage', 'Store in a dry container to maintain shine and quality', 'From our family-owned craft supply business since 2010', 'Inspire your creativity with these versatile building blocks', 'Add to cart today']
+Available packs:
+8mm-39pcs</t>
+  </si>
+  <si>
+    <t>HDS182</t>
+  </si>
+  <si>
+    <t>30pcs 14mm Square Frames for DIY Crafts</t>
+  </si>
+  <si>
+    <t>['Made from durable plastic with a smooth matte finish', 'Each frame measures exactly 14mm x 14mm lightweight design', 'Pack includes 30 pieces perfect for bulk crafting projects', 'Ideal for photo displays jewelry making and mini art canvases', 'Create custom ornaments keychains or scrapbook decorations', 'Enhance your projects with precise and uniform sizing', 'Quality tested for durability and consistent shape', 'Ships in protective packaging to prevent damage', 'Store in a dry place to maintain frame integrity', 'From a brand passionate about creative DIY solutions', 'Start your next masterpiece with these versatile frames', 'Add to cart today']
+Available packs:
+14mm-30pcs</t>
+  </si>
+  <si>
+    <t>HDS183</t>
+  </si>
+  <si>
+    <t>55-110pcs 4-10mm Star Charms in Metallic &amp; Glow Colors</t>
+  </si>
+  <si>
+    <t>['Made from durable alloy with metallic or glow finishes for lasting shine', 'Each star measures 4mm or 6mm and comes in packs of 55-110 pieces', 'Perfect for DIY jewelry like necklaces earrings and charm bracelets', 'Decorate scrapbooks greeting cards or photo albums with tiny stars', 'Add sparkle to phone cases keychains or hair accessories', 'Mix colors for unique party decorations or table scatter', 'Non-tarnish material maintains color without fading over time', 'Consistently shaped stars with smooth edges for safe handling', 'Ships in protective packaging to prevent damage during transit', 'Store in dry container to preserve finish and prevent oxidation', 'Handcrafted by artisans specializing in miniature metal crafts', 'Upgrade your creative projects with these versatile shiny stars Add to cart today']
+Available packs:
+4mm-110pcs
+6mm-75pcs
+8mm-55pcs
+10mm-55pcs</t>
+  </si>
+  <si>
+    <t>HDS184-HDS187-合集</t>
+  </si>
+  <si>
+    <t>44-78pcs 6-10mm Peach Heart Beads in Assorted Colors</t>
+  </si>
+  <si>
+    <t>['High-quality alloy peach heart beads with glossy finish for a premium look', 'Available in 6mm or 8mm sizes each weighing approximately 0.5g per piece', 'Pack includes 44-78 pieces depending on color and size selection', 'Perfect for DIY jewelry like necklaces bracelets and earrings', 'Create unique keychains bag charms or hair accessories with these beads', 'Ideal for scrapbooking phone case decoration or gift wrapping embellishments', 'Durable and tarnish-resistant material maintains shine over time', 'Each bead carefully inspected for consistent quality and finish', 'Ships in secure packaging to prevent damage during transit', 'Store in dry container to preserve color and prevent oxidation', 'Founded by craft enthusiasts committed to providing creative supplies', 'Enhance your crafting projects with these versatile heart beads Add to cart today']
+Available packs:
+6mm-78pcs
+8mm-58pcs
+10mm-44pcs</t>
+  </si>
+  <si>
+    <t>HDS188-HDS190-10合集</t>
+  </si>
+  <si>
+    <t>68pcs 6mm Arc Heart Beads Assorted Colors</t>
+  </si>
+  <si>
+    <t>['Premium alloy with glossy finish for lasting shine', 'Each bead measures 6mm with horizontal hole for easy threading', 'Pack includes 68 beads in assorted vibrant colors', 'Perfect for DIY jewelry like necklaces bracelets and earrings', 'Create unique keychains charms or decorative accents', 'Enhance scrapbooks photo frames or gift wrapping designs', 'Durable material resists tarnishing for long-term use', 'Consistent sizing ensures uniform professional results', 'Ships in protective packaging to prevent damage', 'Store in dry container to maintain quality', 'Handcrafted with attention to detail for premium results', 'Add to cart today']
+Available packs:
+6mm-68pcs</t>
+  </si>
+  <si>
+    <t>HDS191横空鼓心</t>
+  </si>
+  <si>
+    <t>48-65pcs 6-8mm Heart Beads in Assorted Colors</t>
+  </si>
+  <si>
+    <t>['High-quality acrylic material with a smooth glossy finish for durability', 'Each bead measures 6mm or 8mm with horizontal holes for easy stringing', 'Pack includes 48-65 pieces per color for ample crafting supply', 'Perfect for DIY jewelry like necklaces bracelets and earrings', 'Create unique keychains bag charms or decorative tassels', 'Enhance scrapbooks photo frames or wedding decorations creatively', 'Vibrant colors add a pop to any handmade project or gift', 'Consistent sizing ensures professional-looking results every time', 'Ships securely packaged to prevent damage during transit', 'Store in a dry container to maintain color and prevent scratches', 'Crafted by artisans passionate about quality crafting supplies', 'Add to cart today to start your next creative adventure']
+Available packs:
+6mm-65pcs
+8mm-48pcs</t>
+  </si>
+  <si>
+    <t>HDS192-3横孔心</t>
+  </si>
+  <si>
+    <t>38-62pcs 6-10mm Cross Charms in Assorted Colors</t>
+  </si>
+  <si>
+    <t>['Crafted from durable alloy with a polished finish for lasting shine', 'Each charm measures 6mm or 8mm and weighs approx 0.5g per piece', 'Pack includes 38-62 pieces depending on selected size and color', 'Perfect for DIY jewelry like necklaces bracelets and earrings', 'Use in scrapbooking keychains or home decor for a personal touch', 'Vibrant colors include gold rose gold blue green and multicolor', 'High-quality materials ensure no fading or tarnishing over time', 'Ships in protective packaging within 3-5 business days', "Store in a dry place to maintain the charms' pristine condition", 'Inspired by artisanal designs for creative and spiritual projects', 'Elevate your crafting with these versatile cross charms', 'Add to cart today']
+Available packs:
+6mm-62pcs
+8mm-48pcs
+10mm-38pcs</t>
+  </si>
+  <si>
+    <t>HDS196-7-8十字架合集</t>
+  </si>
+  <si>
+    <t>65-165pcs 2-3mm Square Beads in Assorted Colors</t>
+  </si>
+  <si>
+    <t>['High-quality resin square beads with a glossy finish for a polished look', 'Available in 2mm and 3mm sizes with each pack containing 65-165 pieces', 'Perfect for DIY jewelry like bracelets necklaces and earrings', 'Use for creative projects such as keychains decor and scrapbooking', 'Vibrant colors including gold rose green blue and multicolor options', 'Durable and lightweight beads ensuring long-lasting wear and use', 'Each bead is carefully inspected for consistent size and flawless finish', 'Fast shipping with secure packaging to protect your beads in transit', 'Store in a dry cool place to maintain color and quality over time', 'Our brand focuses on providing premium crafting materials for all skill levels', 'Enhance your creations with these versatile and stylish square beads', 'Add to cart today']
+Available packs:
+2mm-165pcs
+3mm-120pcs
+4mm-90pcs
+6mm-65pcs</t>
+  </si>
+  <si>
+    <t>HDS199-200-1-2方块合集</t>
+  </si>
+  <si>
+    <t>28-45pcs 8-14mm Hollow Round Beads for DIY Jewelry</t>
+  </si>
+  <si>
+    <t>['Premium alloy material with glossy metallic or iridescent finishes', 'Each bead measures 8mm or 10mm with lightweight hollow construction', 'Pack contains 28-45 beads depending on color and size selection', 'Perfect for crafting necklaces bracelets and earrings', 'Create keychains bag charms or decorative curtain tiebacks', 'Mix colors for vibrant bohemian-style jewelry designs', 'Consistent sizing ensures professional-looking finished products', 'Each order carefully inspected for quality before shipping', 'Ships in protective packaging to prevent damage en route', 'Store in dry container to maintain shine and prevent tarnishing', 'Artisan-crafted beads supporting small creative businesses worldwide', 'Versatile components for all your creative jewelry projects', 'Add to cart today']
+Available packs:
+8mm-45pcs
+10mm-38pcs
+12mm-32pcs
+14mm-28pcs</t>
+  </si>
+  <si>
+    <t>HDS203-HDS206-合集</t>
+  </si>
+  <si>
+    <t>185-385pcs 1-2mm Spacers in Assorted Colors</t>
+  </si>
+  <si>
+    <t>['Premium metal spacers with glossy finish for durability', 'Precise 3x1mm or 4x1mm size options to fit various needs', 'Each pack contains 185-385 pieces based on color choice', 'Perfect for DIY jewelry making and beadwork projects', 'Enhance scrapbooks cards and mixed media art creations', 'Use in home decor crafts for added dimensional detail', 'Colorfast coatings resist chipping and maintain vibrancy', 'Consistently sized for professional crafting results', 'Ships securely packaged within 1-3 business days', 'Store in dry conditions to prevent oxidation', 'Artisan-crafted spacers from trusted jewelry supply brand', 'Upgrade your creative projects with these versatile spacers Add to cart today']
+Available packs:
+1mm-335pcs
+1mm-385pcs
+2mm-190pcs
+2mm-185pcs</t>
+  </si>
+  <si>
+    <t>HDS207-HDS210合集</t>
+  </si>
+  <si>
+    <t>50-95pcs 2mm Flat Square Beads in Assorted Colors</t>
+  </si>
+  <si>
+    <t>['Premium alloy material with glossy finish for a luxurious look', 'Exact size 4x4x2mm or 6x6x2mm and weight 0.5g per bead', 'Pack includes 50-95 pieces depending on color selection', 'Perfect for DIY jewelry like bracelets necklaces and earrings', 'Use in creative projects like scrapbooking keychains and decor', 'Vibrant colors including blue purple gold green and pink', 'High-quality beads with consistent shape and smooth edges', 'Ships in secure packaging to prevent damage during transit', 'Store in a dry place to maintain shine and prevent tarnishing', 'Inspired by global fashion trends for versatile styling options', 'Each bead inspected for quality assurance and durability', 'Enhance your craft collection with these stylish flat square beads Add to cart today']
+Available packs:
+2mm-95pcs
+2mm-65pcs
+2mm-50pcs</t>
+  </si>
+  <si>
+    <t>HDS211-HDS213合集</t>
+  </si>
+  <si>
+    <t>35-130pcs 3-10mm New Faceted Beads in Assorted Colors</t>
+  </si>
+  <si>
+    <t>['Premium acrylic material with a glossy faceted finish for brilliant shine', 'Available in 3mm and 4mm sizes with exact weights listed per pack quantity', 'Perfect for DIY jewelry making including necklaces bracelets and earrings', 'Create stunning home decor items like suncatchers or decorative accents', 'Vibrant color options add sparkle to any creative project or craft', 'Consistent sizing and smooth edges ensure professional-looking results', 'Each pack contains 35-130 pieces depending on selected size and color', 'Ships securely packaged within 1-3 business days of order confirmation', 'Store in a dry cool place to maintain bead quality and luster', 'Family-owned business specializing in quality craft supplies since 2005', 'These versatile beads work beautifully with string wire or glue', 'Start your next creative project with these dazzling faceted beads']
+Available packs:
+3mm-130pcs
+4mm-100pcs
+6mm-60pcs
+8mm-43pcs
+10mm-35pcs</t>
+  </si>
+  <si>
+    <t>HDS217-221合集</t>
+  </si>
+  <si>
+    <t>80-130pcs 4-10mm Small V Arrow Charms in Assorted Color</t>
+  </si>
+  <si>
+    <t>['Crafted from durable alloy with a polished finish for a sleek look', 'Each charm measures 4x2mm or 6x3mm and comes in 80-130pcs per pack', 'Perfect for DIY jewelry like earrings necklaces and bracelets', 'Enhance scrapbooks greeting cards and photo albums creatively', 'Use for keychains bag charms or clothing embellishments', 'Vibrant colors include gold rose green blue and multicolor', 'High-quality materials ensure long-lasting shine and durability', 'Shipped securely in a resealable bag for easy storage', 'Store in a dry place to prevent tarnishing over time', 'Our brand focuses on affordable premium crafting supplies', 'Inspire your creativity with these versatile arrow charms', 'Add to cart today']
+Available packs:
+4mm-130pcs
+6mm-95pcs
+8mm-90pcs
+10mm-80pcs</t>
+  </si>
+  <si>
+    <t>HDS222-HDS225-合集</t>
   </si>
 </sst>
 </file>
@@ -105,7 +340,22 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,12 +702,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,31 +825,20 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,127 +847,134 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -767,221 +1028,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -990,17 +1037,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1008,39 +1048,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874CB"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EE822F"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="F2BA02"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75BD42"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30C0B4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="E54C5E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1072,7 +1112,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1107,135 +1146,171 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1247,18 +1322,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="16384" width="19.125" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1280,267 +1352,624 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>10004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>3503</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>10005</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>5.16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>3504</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>10006</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>3505</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>10007</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>3506</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>10008</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>3507</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>10009</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>4.03</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>3508</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>10010</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>4.4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>3509</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>10011</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4.66</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>4.4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>3510</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>10012</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4.66</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>3511</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>10013</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5.74</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>3512</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>10014</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5.53</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>3523</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>10015</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4.79</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>3528</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>10016</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5.31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>3535</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>10017</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>3536</v>
+      </c>
+      <c r="I15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>10018</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>4.4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>3537</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>10019</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1">
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>3548</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>10020</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1">
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>3569</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>10021</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1">
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>3580</v>
+      </c>
+      <c r="I19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>10022</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1">
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>3591</v>
+      </c>
+      <c r="I20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>10023</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1">
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>4.22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>3592</v>
+      </c>
+      <c r="I21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>10024</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1">
-        <v>10025</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1">
-        <v>10026</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1">
-        <v>10027</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1">
-        <v>10028</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1">
-        <v>10029</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1">
-        <v>10030</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1">
-        <v>10031</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1">
-        <v>10032</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1">
-        <v>10033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1">
-        <v>10034</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1">
-        <v>10035</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1">
-        <v>10036</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1">
-        <v>10037</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1">
-        <v>10038</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1">
-        <v>10039</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1">
-        <v>10040</v>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>3603</v>
+      </c>
+      <c r="I22" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/数据/products.xlsx
+++ b/数据/products.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -56,12 +56,12 @@
     <t>folder_name</t>
   </si>
   <si>
-    <t>85pcs 4mm Hexagon Rods KC Gold Rose Gold Silver 9K 18K</t>
-  </si>
-  <si>
-    <t>['High-quality metal hexagon rods with a smooth polished finish', 'Precise 4mm diameter and uniform length for consistent crafting', 'Each pack contains exactly 85 pieces of hexagon rods', 'Perfect for DIY jewelry keychains and decorative art projects', 'Create unique bracelets earrings or geometric wall sculptures', 'Durable material resists tarnishing and maintains shiny appearance', 'All rods inspected for flawless quality before shipping', 'Ships securely packaged within 1-2 business days', 'Store in dry conditions to preserve metallic luster', 'Founded by artisans passionate about quality craft supplies', 'Mix and match colors for stunning personalized designs', 'Add to cart today']
+    <t>110pcs 4mm Half Deep Red Half Gold Flat Beads</t>
+  </si>
+  <si>
+    <t>['Premium resin material with glossy half deep red half gold finish', 'Each bead measures 4mm in diameter and comes in a pack of 110 pieces', 'Ideal for DIY jewelry like bracelets necklaces and earrings', 'Perfect for embellishing clothing accessories or home decor items', 'Create unique keychains bookmarks or hair accessories with ease', 'Vibrant colors add a touch of elegance to any creative project', 'High-quality beads ensure durability and long-lasting shine', 'Carefully packaged for safe shipping and delivery', 'Store in a dry cool place to maintain color and finish', 'Inspired by craftsmanship and designed for your creativity', 'Enhance your handmade creations with these versatile beads', 'Add to cart today']
 Available packs:
-4mm-85pcs</t>
+4mm-110pcs</t>
   </si>
   <si>
     <t>Beads(珠子)</t>
@@ -73,261 +73,7 @@
     <t>Beads</t>
   </si>
   <si>
-    <t>HDS170</t>
-  </si>
-  <si>
-    <t>32pcs 12mm Hollow Ring Set in KC Gold 18K Silver Rose G</t>
-  </si>
-  <si>
-    <t>['Made from high-quality brass with a durable KC gold 18K gold silver or rose gold finish', 'Each ring measures 12mm in diameter and comes in a set of 32 pieces', 'Perfect for DIY jewelry making and custom ring designs', 'Ideal for stacking layering or creating unique statement pieces', 'Use for wedding party favors bridesmaid gifts or fashion accessories', 'Lightweight yet sturdy design ensures comfort and long-lasting wear', 'Great for craft projects home decor or as embellishments for clothing', 'Each set is carefully inspected for quality and consistency', 'Ships in secure packaging to prevent damage during transit', 'Store in a dry place to maintain shine and prevent tarnishing', 'Our brand focuses on affordable stylish and versatile jewelry supplies', 'Add to cart today']
-Available packs:
-12mm-32pcs</t>
-  </si>
-  <si>
-    <t>HDS172</t>
-  </si>
-  <si>
-    <t>75-380pcs 1-5mm Double Hole Beads in Assorted Colors</t>
-  </si>
-  <si>
-    <t>['High-quality alloy beads with a smooth polished finish for durability', 'Precise 5x5mm 5x2mm or 5x1mm sizes and 1-5mm thickness options for versatile use', 'Each pack contains 75-380 pieces depending on your selection', 'Ideal for DIY jewelry like bracelets necklaces and earrings', 'Perfect for scrapbooking keychains and home decor projects', 'Vibrant colors including blue bronze green rainbow white gold purple and black', 'Lightweight design ensures comfortable wear in jewelry creations', 'Consistent sizing and uniform holes for easy stringing and crafting', 'Ships in secure packaging to prevent damage during transit', 'Store in a dry place to maintain shine and prevent tarnishing', 'Crafted by artisans passionate about quality and creative expression', 'Enhance your crafting with these versatile colorful beads', 'Add to cart today']
-Available packs:
-1mm-380pcs
-2mm-145pcs
-5mm-75pcs</t>
-  </si>
-  <si>
-    <t>HDS173-HDS175</t>
-  </si>
-  <si>
-    <t>63-145pcs 2-6mm Double Hole Natural Wood Beads</t>
-  </si>
-  <si>
-    <t>['Made from natural wood with a smooth unfinished surface for a rustic look', 'Sizes vary from 5x5mm 6x6mm 5x2mm to 6x3mm each pack contains 63-145 pieces', 'Perfect for DIY jewelry like bracelets necklaces and earrings', 'Use in home decor projects such as curtain ties and wall hangings', 'Great for crafting keychains bag charms and gift toppers', 'Lightweight and easy to handle for all skill levels', 'High-quality beads with consistent sizing and clean double holes', 'Ships in a sturdy resealable bag to keep beads organized and safe', "Store in a cool dry place to maintain the wood's natural integrity", 'Handcrafted with care by artisans who value sustainability', 'Enhance your creative projects with these versatile wooden beads', 'Add to cart today']
-Available packs:
-2mm-145pcs
-3mm-95pcs
-5mm-74pcs
-6mm-63pcs</t>
-  </si>
-  <si>
-    <t>HDS176-HDS177</t>
-  </si>
-  <si>
-    <t>48-75pcs 4-6mm Diagonal Square Beads for DIY Crafts</t>
-  </si>
-  <si>
-    <t>['High-quality resin diagonal square beads with a smooth glossy finish', 'Precise 4x4mm and 6x6mm sizes each bead weighs approx 0.5g', 'Pack includes 48-75pcs perfect for multiple projects', 'Ideal for jewelry making bracelets necklaces and earrings', 'Use in home decor keychains and creative wall art', 'Lightweight yet durable for long-lasting wearable designs', 'Consistent size and color for professional-looking results', 'Ships in secure packaging to prevent damage during transit', 'Store in a dry place away from direct sunlight', 'Handmade with care by skilled artisans for premium quality', 'Elevate your crafting with these versatile stylish beads', 'Add to cart today']
-Available packs:
-4mm-75pcs
-6mm-48pcs</t>
-  </si>
-  <si>
-    <t>HDS178</t>
-  </si>
-  <si>
-    <t>30-35pcs 10-12mm Hollow Ring Bands for DIY Jewelry</t>
-  </si>
-  <si>
-    <t>['Made from durable brass with a smooth polished finish for a premium look', 'Each ring measures 10-12mm in diameter and weighs approx 0.5g for lightweight wear', 'Pack includes 30-35 pieces perfect for bulk crafting projects', 'Ideal for making stackable rings charm bracelets and pendant necklaces', 'Create unique wedding bands friendship rings or decorative chain connectors', 'Consistent sizing allows for uniform professional-looking jewelry designs', 'Each piece undergoes quality inspection for flawless surfaces and perfect shapes', 'Ships in protective packaging to prevent dents or scratches during transit', 'Store in dry conditions to maintain shine and prevent tarnishing over time', 'From our family-owned jewelry supply business since 1992', 'Versatile blank components for jewelers and crafters at all skill levels', 'Add to cart today']
-Available packs:
-10mm-35pcs
-12mm-30pcs</t>
-  </si>
-  <si>
-    <t>HDS179</t>
-  </si>
-  <si>
-    <t>26-31pcs 13-16mm Twisted Hollow Flat Round Beads</t>
-  </si>
-  <si>
-    <t>['Made from high-quality alloy with a polished gold or silver finish', 'Each bead measures 10x16mm or 8x13mm and weighs approx 0.5g', 'Pack includes 26-31 pieces per set depending on size', 'Perfect for DIY jewelry like bracelets necklaces and earrings', 'Use in scrapbooking home decor or keychain projects', 'Lightweight yet durable beads with smooth edges for comfort', 'Consistently shaped beads with uniform coloring and finish', 'Ships in protective packaging within 1-3 business days', 'Store in dry place to prevent tarnishing and maintain shine', 'Handcrafted by artisans focusing on unique affordable designs', 'Mix and match with other beads for custom creations', 'Add to cart today']
-Available packs:
-13mm-31pcs
-16mm-26pcs</t>
-  </si>
-  <si>
-    <t>HDS180</t>
-  </si>
-  <si>
-    <t>25pcs 16mm Hollow Flat Round Beads</t>
-  </si>
-  <si>
-    <t>['Made from durable plastic with a smooth matte finish', 'Each bead measures 13x16mm and weighs approximately 0.5g', 'Pack includes 25 pieces for ample crafting supply', 'Perfect for DIY jewelry like necklaces and bracelets', 'Use in home decor projects such as dreamcatchers', 'Lightweight yet sturdy for versatile creative applications', 'Consistent size and shape for professional results', 'Ships in protective packaging to prevent damage', 'Store in a dry place to maintain bead quality', 'Inspired by minimalist design for modern crafters', 'Enhance your creations with these sleek hollow beads', 'Add to cart today']
-Available packs:
-16mm-25pcs</t>
-  </si>
-  <si>
-    <t>HDS181</t>
-  </si>
-  <si>
-    <t>39pcs 8mm Hollow Diagonal Square Blocks</t>
-  </si>
-  <si>
-    <t>['Made from high-quality acrylic with a smooth glossy finish', 'Each square measures exactly 8x8mm lightweight yet durable', 'Pack includes 39 pieces perfect for multiple projects', 'Ideal for DIY jewelry keychains and home decor crafts', 'Create mosaic art photo frames or decorative wall pieces', 'Enhance your designs with unique geometric patterns', 'Consistently shaped pieces for professional-looking results', 'Ships in protective packaging to prevent damage', 'Store in a dry container to maintain shine and quality', 'From our family-owned craft supply business since 2010', 'Inspire your creativity with these versatile building blocks', 'Add to cart today']
-Available packs:
-8mm-39pcs</t>
-  </si>
-  <si>
-    <t>HDS182</t>
-  </si>
-  <si>
-    <t>30pcs 14mm Square Frames for DIY Crafts</t>
-  </si>
-  <si>
-    <t>['Made from durable plastic with a smooth matte finish', 'Each frame measures exactly 14mm x 14mm lightweight design', 'Pack includes 30 pieces perfect for bulk crafting projects', 'Ideal for photo displays jewelry making and mini art canvases', 'Create custom ornaments keychains or scrapbook decorations', 'Enhance your projects with precise and uniform sizing', 'Quality tested for durability and consistent shape', 'Ships in protective packaging to prevent damage', 'Store in a dry place to maintain frame integrity', 'From a brand passionate about creative DIY solutions', 'Start your next masterpiece with these versatile frames', 'Add to cart today']
-Available packs:
-14mm-30pcs</t>
-  </si>
-  <si>
-    <t>HDS183</t>
-  </si>
-  <si>
-    <t>55-110pcs 4-10mm Star Charms in Metallic &amp; Glow Colors</t>
-  </si>
-  <si>
-    <t>['Made from durable alloy with metallic or glow finishes for lasting shine', 'Each star measures 4mm or 6mm and comes in packs of 55-110 pieces', 'Perfect for DIY jewelry like necklaces earrings and charm bracelets', 'Decorate scrapbooks greeting cards or photo albums with tiny stars', 'Add sparkle to phone cases keychains or hair accessories', 'Mix colors for unique party decorations or table scatter', 'Non-tarnish material maintains color without fading over time', 'Consistently shaped stars with smooth edges for safe handling', 'Ships in protective packaging to prevent damage during transit', 'Store in dry container to preserve finish and prevent oxidation', 'Handcrafted by artisans specializing in miniature metal crafts', 'Upgrade your creative projects with these versatile shiny stars Add to cart today']
-Available packs:
-4mm-110pcs
-6mm-75pcs
-8mm-55pcs
-10mm-55pcs</t>
-  </si>
-  <si>
-    <t>HDS184-HDS187-合集</t>
-  </si>
-  <si>
-    <t>44-78pcs 6-10mm Peach Heart Beads in Assorted Colors</t>
-  </si>
-  <si>
-    <t>['High-quality alloy peach heart beads with glossy finish for a premium look', 'Available in 6mm or 8mm sizes each weighing approximately 0.5g per piece', 'Pack includes 44-78 pieces depending on color and size selection', 'Perfect for DIY jewelry like necklaces bracelets and earrings', 'Create unique keychains bag charms or hair accessories with these beads', 'Ideal for scrapbooking phone case decoration or gift wrapping embellishments', 'Durable and tarnish-resistant material maintains shine over time', 'Each bead carefully inspected for consistent quality and finish', 'Ships in secure packaging to prevent damage during transit', 'Store in dry container to preserve color and prevent oxidation', 'Founded by craft enthusiasts committed to providing creative supplies', 'Enhance your crafting projects with these versatile heart beads Add to cart today']
-Available packs:
-6mm-78pcs
-8mm-58pcs
-10mm-44pcs</t>
-  </si>
-  <si>
-    <t>HDS188-HDS190-10合集</t>
-  </si>
-  <si>
-    <t>68pcs 6mm Arc Heart Beads Assorted Colors</t>
-  </si>
-  <si>
-    <t>['Premium alloy with glossy finish for lasting shine', 'Each bead measures 6mm with horizontal hole for easy threading', 'Pack includes 68 beads in assorted vibrant colors', 'Perfect for DIY jewelry like necklaces bracelets and earrings', 'Create unique keychains charms or decorative accents', 'Enhance scrapbooks photo frames or gift wrapping designs', 'Durable material resists tarnishing for long-term use', 'Consistent sizing ensures uniform professional results', 'Ships in protective packaging to prevent damage', 'Store in dry container to maintain quality', 'Handcrafted with attention to detail for premium results', 'Add to cart today']
-Available packs:
-6mm-68pcs</t>
-  </si>
-  <si>
-    <t>HDS191横空鼓心</t>
-  </si>
-  <si>
-    <t>48-65pcs 6-8mm Heart Beads in Assorted Colors</t>
-  </si>
-  <si>
-    <t>['High-quality acrylic material with a smooth glossy finish for durability', 'Each bead measures 6mm or 8mm with horizontal holes for easy stringing', 'Pack includes 48-65 pieces per color for ample crafting supply', 'Perfect for DIY jewelry like necklaces bracelets and earrings', 'Create unique keychains bag charms or decorative tassels', 'Enhance scrapbooks photo frames or wedding decorations creatively', 'Vibrant colors add a pop to any handmade project or gift', 'Consistent sizing ensures professional-looking results every time', 'Ships securely packaged to prevent damage during transit', 'Store in a dry container to maintain color and prevent scratches', 'Crafted by artisans passionate about quality crafting supplies', 'Add to cart today to start your next creative adventure']
-Available packs:
-6mm-65pcs
-8mm-48pcs</t>
-  </si>
-  <si>
-    <t>HDS192-3横孔心</t>
-  </si>
-  <si>
-    <t>38-62pcs 6-10mm Cross Charms in Assorted Colors</t>
-  </si>
-  <si>
-    <t>['Crafted from durable alloy with a polished finish for lasting shine', 'Each charm measures 6mm or 8mm and weighs approx 0.5g per piece', 'Pack includes 38-62 pieces depending on selected size and color', 'Perfect for DIY jewelry like necklaces bracelets and earrings', 'Use in scrapbooking keychains or home decor for a personal touch', 'Vibrant colors include gold rose gold blue green and multicolor', 'High-quality materials ensure no fading or tarnishing over time', 'Ships in protective packaging within 3-5 business days', "Store in a dry place to maintain the charms' pristine condition", 'Inspired by artisanal designs for creative and spiritual projects', 'Elevate your crafting with these versatile cross charms', 'Add to cart today']
-Available packs:
-6mm-62pcs
-8mm-48pcs
-10mm-38pcs</t>
-  </si>
-  <si>
-    <t>HDS196-7-8十字架合集</t>
-  </si>
-  <si>
-    <t>65-165pcs 2-3mm Square Beads in Assorted Colors</t>
-  </si>
-  <si>
-    <t>['High-quality resin square beads with a glossy finish for a polished look', 'Available in 2mm and 3mm sizes with each pack containing 65-165 pieces', 'Perfect for DIY jewelry like bracelets necklaces and earrings', 'Use for creative projects such as keychains decor and scrapbooking', 'Vibrant colors including gold rose green blue and multicolor options', 'Durable and lightweight beads ensuring long-lasting wear and use', 'Each bead is carefully inspected for consistent size and flawless finish', 'Fast shipping with secure packaging to protect your beads in transit', 'Store in a dry cool place to maintain color and quality over time', 'Our brand focuses on providing premium crafting materials for all skill levels', 'Enhance your creations with these versatile and stylish square beads', 'Add to cart today']
-Available packs:
-2mm-165pcs
-3mm-120pcs
-4mm-90pcs
-6mm-65pcs</t>
-  </si>
-  <si>
-    <t>HDS199-200-1-2方块合集</t>
-  </si>
-  <si>
-    <t>28-45pcs 8-14mm Hollow Round Beads for DIY Jewelry</t>
-  </si>
-  <si>
-    <t>['Premium alloy material with glossy metallic or iridescent finishes', 'Each bead measures 8mm or 10mm with lightweight hollow construction', 'Pack contains 28-45 beads depending on color and size selection', 'Perfect for crafting necklaces bracelets and earrings', 'Create keychains bag charms or decorative curtain tiebacks', 'Mix colors for vibrant bohemian-style jewelry designs', 'Consistent sizing ensures professional-looking finished products', 'Each order carefully inspected for quality before shipping', 'Ships in protective packaging to prevent damage en route', 'Store in dry container to maintain shine and prevent tarnishing', 'Artisan-crafted beads supporting small creative businesses worldwide', 'Versatile components for all your creative jewelry projects', 'Add to cart today']
-Available packs:
-8mm-45pcs
-10mm-38pcs
-12mm-32pcs
-14mm-28pcs</t>
-  </si>
-  <si>
-    <t>HDS203-HDS206-合集</t>
-  </si>
-  <si>
-    <t>185-385pcs 1-2mm Spacers in Assorted Colors</t>
-  </si>
-  <si>
-    <t>['Premium metal spacers with glossy finish for durability', 'Precise 3x1mm or 4x1mm size options to fit various needs', 'Each pack contains 185-385 pieces based on color choice', 'Perfect for DIY jewelry making and beadwork projects', 'Enhance scrapbooks cards and mixed media art creations', 'Use in home decor crafts for added dimensional detail', 'Colorfast coatings resist chipping and maintain vibrancy', 'Consistently sized for professional crafting results', 'Ships securely packaged within 1-3 business days', 'Store in dry conditions to prevent oxidation', 'Artisan-crafted spacers from trusted jewelry supply brand', 'Upgrade your creative projects with these versatile spacers Add to cart today']
-Available packs:
-1mm-335pcs
-1mm-385pcs
-2mm-190pcs
-2mm-185pcs</t>
-  </si>
-  <si>
-    <t>HDS207-HDS210合集</t>
-  </si>
-  <si>
-    <t>50-95pcs 2mm Flat Square Beads in Assorted Colors</t>
-  </si>
-  <si>
-    <t>['Premium alloy material with glossy finish for a luxurious look', 'Exact size 4x4x2mm or 6x6x2mm and weight 0.5g per bead', 'Pack includes 50-95 pieces depending on color selection', 'Perfect for DIY jewelry like bracelets necklaces and earrings', 'Use in creative projects like scrapbooking keychains and decor', 'Vibrant colors including blue purple gold green and pink', 'High-quality beads with consistent shape and smooth edges', 'Ships in secure packaging to prevent damage during transit', 'Store in a dry place to maintain shine and prevent tarnishing', 'Inspired by global fashion trends for versatile styling options', 'Each bead inspected for quality assurance and durability', 'Enhance your craft collection with these stylish flat square beads Add to cart today']
-Available packs:
-2mm-95pcs
-2mm-65pcs
-2mm-50pcs</t>
-  </si>
-  <si>
-    <t>HDS211-HDS213合集</t>
-  </si>
-  <si>
-    <t>35-130pcs 3-10mm New Faceted Beads in Assorted Colors</t>
-  </si>
-  <si>
-    <t>['Premium acrylic material with a glossy faceted finish for brilliant shine', 'Available in 3mm and 4mm sizes with exact weights listed per pack quantity', 'Perfect for DIY jewelry making including necklaces bracelets and earrings', 'Create stunning home decor items like suncatchers or decorative accents', 'Vibrant color options add sparkle to any creative project or craft', 'Consistent sizing and smooth edges ensure professional-looking results', 'Each pack contains 35-130 pieces depending on selected size and color', 'Ships securely packaged within 1-3 business days of order confirmation', 'Store in a dry cool place to maintain bead quality and luster', 'Family-owned business specializing in quality craft supplies since 2005', 'These versatile beads work beautifully with string wire or glue', 'Start your next creative project with these dazzling faceted beads']
-Available packs:
-3mm-130pcs
-4mm-100pcs
-6mm-60pcs
-8mm-43pcs
-10mm-35pcs</t>
-  </si>
-  <si>
-    <t>HDS217-221合集</t>
-  </si>
-  <si>
-    <t>80-130pcs 4-10mm Small V Arrow Charms in Assorted Color</t>
-  </si>
-  <si>
-    <t>['Crafted from durable alloy with a polished finish for a sleek look', 'Each charm measures 4x2mm or 6x3mm and comes in 80-130pcs per pack', 'Perfect for DIY jewelry like earrings necklaces and bracelets', 'Enhance scrapbooks greeting cards and photo albums creatively', 'Use for keychains bag charms or clothing embellishments', 'Vibrant colors include gold rose green blue and multicolor', 'High-quality materials ensure long-lasting shine and durability', 'Shipped securely in a resealable bag for easy storage', 'Store in a dry place to prevent tarnishing over time', 'Our brand focuses on affordable premium crafting supplies', 'Inspire your creativity with these versatile arrow charms', 'Add to cart today']
-Available packs:
-4mm-130pcs
-6mm-95pcs
-8mm-90pcs
-10mm-80pcs</t>
-  </si>
-  <si>
-    <t>HDS222-HDS225-合集</t>
+    <t>FZ638</t>
   </si>
 </sst>
 </file>
@@ -1322,13 +1068,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1361,7 +1107,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1382,590 +1128,10 @@
         <v>13</v>
       </c>
       <c r="H2">
-        <v>3503</v>
+        <v>1887</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>10005</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>5.16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>3504</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>10006</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4">
-        <v>3505</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>10007</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5">
-        <v>3506</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>10008</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6">
-        <v>3507</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>10009</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>4.03</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7">
-        <v>3508</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>10010</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8">
-        <v>4.4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8">
-        <v>3509</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>10011</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9">
-        <v>4.4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9">
-        <v>3510</v>
-      </c>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>10012</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10">
-        <v>3511</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>10013</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11">
-        <v>3512</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>10014</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12">
-        <v>3523</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>10015</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13">
-        <v>3528</v>
-      </c>
-      <c r="I13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>10016</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14">
-        <v>3535</v>
-      </c>
-      <c r="I14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>10017</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15">
-        <v>3536</v>
-      </c>
-      <c r="I15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>10018</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16">
-        <v>4.4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16">
-        <v>3537</v>
-      </c>
-      <c r="I16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>10019</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17">
-        <v>3548</v>
-      </c>
-      <c r="I17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>10020</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18">
-        <v>3569</v>
-      </c>
-      <c r="I18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>10021</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19">
-        <v>3580</v>
-      </c>
-      <c r="I19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
-        <v>10022</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20">
-        <v>3591</v>
-      </c>
-      <c r="I20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21">
-        <v>10023</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21">
-        <v>4.22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21">
-        <v>3592</v>
-      </c>
-      <c r="I21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22">
-        <v>10024</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22">
-        <v>3603</v>
-      </c>
-      <c r="I22" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
